--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25665" windowHeight="13140"/>
+    <workbookView windowWidth="30075" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -25,15 +25,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>make_method</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>related_material</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>opposite_tag</t>
   </si>
   <si>
-    <t>unlock_method</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -76,15 +67,9 @@
     <t>名字</t>
   </si>
   <si>
-    <t>售价</t>
-  </si>
-  <si>
     <t>制作方式</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>关联食材</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>反标签</t>
   </si>
   <si>
-    <t>解锁方式</t>
-  </si>
-  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>家常,清淡</t>
   </si>
   <si>
-    <t>未知</t>
-  </si>
-  <si>
     <t>炒虾</t>
   </si>
   <si>
@@ -131,9 +110,6 @@
   </si>
   <si>
     <t>炸锅</t>
-  </si>
-  <si>
-    <t>炸鸡排</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Character/Lady.png</t>
@@ -176,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +168,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
@@ -207,19 +177,6 @@
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -710,185 +667,182 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1208,28 +1162,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:15">
+    <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1238,275 +1190,203 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="10"/>
     </row>
-    <row r="3" ht="16.5" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E4" s="7">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="12"/>
+      <c r="E5" s="7">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1003</v>
-      </c>
-      <c r="H4" s="10" t="s">
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8" t="s">
+      <c r="E6" s="7">
+        <v>1006</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7">
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1005</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1006</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
-        <v>32</v>
-      </c>
+    <row r="9" spans="6:6">
+      <c r="F9" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
-        <v>10005</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1005</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="11"/>
+    <row r="10" spans="6:6">
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -49,7 +49,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>food.makeMenuType</t>
+    <t>food.cookTools</t>
   </si>
   <si>
     <t>list,int#ref=food.TbMaterial</t>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30075" windowHeight="13140"/>
+    <workbookView windowWidth="24570" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -31,9 +31,6 @@
     <t>related_material</t>
   </si>
   <si>
-    <t>res_path</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>关联食材</t>
   </si>
   <si>
-    <t>资源路径</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>蒸锅</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
-  </si>
-  <si>
     <t>家常,清淡</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>炒锅</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/FishMan.png</t>
-  </si>
-  <si>
     <t>水产,昂贵</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>炸锅</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/Lady.png</t>
-  </si>
-  <si>
     <t>肉,重油,饱腹</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>煮锅</t>
   </si>
   <si>
-    <t>Assets/GameRes/Picture/Character/LittleGirl.png</t>
-  </si>
-  <si>
     <t>肉,家常</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
   </si>
   <si>
     <t>烤锅</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Character/Merchant.png</t>
   </si>
   <si>
     <t>素,家常</t>
@@ -168,29 +147,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -685,7 +664,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,7 +736,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,35 +791,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1162,22 +1139,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="31.125" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1193,200 +1169,170 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
     </row>
-    <row r="3" ht="16.5" spans="1:12">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="10"/>
+      <c r="E4" s="10">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7">
-        <v>1003</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E5" s="10">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="G5" s="10"/>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7">
-        <v>1002</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E6" s="10">
+        <v>1006</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>10004</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1006</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9">
+        <v>10005</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E8" s="10">
+        <v>1005</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
-        <v>10005</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1005</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="9"/>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24570" windowHeight="13140"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,12 @@
     <t>opposite_tag</t>
   </si>
   <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>cook_scene</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
     <t>反标签</t>
   </si>
   <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>玩法场景</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -83,6 +95,12 @@
   </si>
   <si>
     <t>家常,清淡</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Scenes/FryingPan.unity</t>
   </si>
   <si>
     <t>炒虾</t>
@@ -147,29 +165,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -664,7 +682,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,7 +754,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,28 +814,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1150,10 +1168,11 @@
     <col min="4" max="4" width="31.125" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1175,164 +1194,197 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" ht="16.5" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9">
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>10001</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
         <v>1003</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>10002</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
         <v>1002</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>10003</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1006</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10">
-        <v>1006</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
         <v>10004</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7">
         <v>1001</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>10005</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
         <v>1005</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowHeight="17820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
+    <sheet name="QTE" sheetId="2" r:id="rId2"/>
+    <sheet name="口味" sheetId="4" r:id="rId3"/>
+    <sheet name="制作场景" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -40,7 +43,7 @@
     <t>difficulty</t>
   </si>
   <si>
-    <t>cook_scene</t>
+    <t>*qte_appear_infos</t>
   </si>
   <si>
     <t>##type</t>
@@ -61,6 +64,21 @@
     <t>(list#sep=,),food.flavorTag</t>
   </si>
   <si>
+    <t>food.cookDifficulty</t>
+  </si>
+  <si>
+    <t>(list),food.qte_info</t>
+  </si>
+  <si>
+    <t>start_area</t>
+  </si>
+  <si>
+    <t>end_area</t>
+  </si>
+  <si>
+    <t>qte_id</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -85,7 +103,13 @@
     <t>难度</t>
   </si>
   <si>
-    <t>玩法场景</t>
+    <t>开始区间</t>
+  </si>
+  <si>
+    <t>结束区间</t>
+  </si>
+  <si>
+    <t>对应QTE玩法</t>
   </si>
   <si>
     <t>蒸蛋</t>
@@ -97,10 +121,25 @@
     <t>家常,清淡</t>
   </si>
   <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Assets/GameRes/Scenes/FryingPan.unity</t>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>炒虾</t>
@@ -112,6 +151,9 @@
     <t>水产,昂贵</t>
   </si>
   <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>炸鸡柳</t>
   </si>
   <si>
@@ -121,6 +163,9 @@
     <t>肉,重油,饱腹</t>
   </si>
   <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>煮牛肉</t>
   </si>
   <si>
@@ -130,6 +175,9 @@
     <t>肉,家常</t>
   </si>
   <si>
+    <t>困难</t>
+  </si>
+  <si>
     <t>烤土豆</t>
   </si>
   <si>
@@ -137,6 +185,189 @@
   </si>
   <si>
     <t>素,家常</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>anim_res_path</t>
+  </si>
+  <si>
+    <t>key_code</t>
+  </si>
+  <si>
+    <t>food.flavorTag</t>
+  </si>
+  <si>
+    <t>QTEId</t>
+  </si>
+  <si>
+    <t>加分</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>ascii码</t>
+  </si>
+  <si>
+    <t>加盐</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>按S键/n往菜里加入盐</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AddSaltAnim.prefab</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>加醋</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>按D键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>水产</t>
+  </si>
+  <si>
+    <t>素</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>昂贵</t>
+  </si>
+  <si>
+    <t>家常</t>
+  </si>
+  <si>
+    <t>凉菜</t>
+  </si>
+  <si>
+    <t>卤制品</t>
+  </si>
+  <si>
+    <t>荤素搭配</t>
+  </si>
+  <si>
+    <t>野味</t>
+  </si>
+  <si>
+    <t>小炒</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>重油</t>
+  </si>
+  <si>
+    <t>汤羹</t>
+  </si>
+  <si>
+    <t>热气</t>
+  </si>
+  <si>
+    <t>清淡</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>鲜</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>小巧</t>
+  </si>
+  <si>
+    <t>清凉</t>
+  </si>
+  <si>
+    <t>暖胃</t>
+  </si>
+  <si>
+    <t>烫嘴</t>
+  </si>
+  <si>
+    <t>冰爽</t>
+  </si>
+  <si>
+    <t>香酥</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>嫩</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>软烂</t>
+  </si>
+  <si>
+    <t>开胃</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>cook_prefab</t>
+  </si>
+  <si>
+    <t>加载资源</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/FryModule.prefab</t>
+  </si>
+  <si>
+    <t>Boil</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
   </si>
 </sst>
 </file>
@@ -149,7 +380,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +396,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
@@ -177,10 +415,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <color rgb="FF202124"/>
+      <name val="微软雅黑 Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -320,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,10 +910,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,36 +922,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,124 +958,139 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1157,236 +1412,1047 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.9083333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.35" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.1916666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.325" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16.5" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
         <v>10001</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9">
         <v>1003</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6">
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7">
         <v>10002</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9">
         <v>1002</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
         <v>10003</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9">
         <v>1006</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
+      <c r="I8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7">
         <v>10004</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1001</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
+    </row>
+    <row r="10" ht="16.5" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
         <v>10005</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9">
         <v>1005</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="9:11">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="9:11">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="9:11">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="9:11">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="9:11">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="9:11">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="9:11">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="9:11">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="9:11">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="9:11">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="9:11">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="9:11">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="11.825" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="47.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.475" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="16.5" spans="7:7">
+      <c r="G9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
+      <c r="B6" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:3">
+      <c r="B7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:3">
+      <c r="B8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:3">
+      <c r="B9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:3">
+      <c r="B10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:3">
+      <c r="B11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:3">
+      <c r="B12" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:3">
+      <c r="B13" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:3">
+      <c r="B14" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:3">
+      <c r="B15" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:3">
+      <c r="B16" s="4">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:3">
+      <c r="B17" s="4">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:3">
+      <c r="B18" s="4">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:3">
+      <c r="B19" s="4">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:3">
+      <c r="B20" s="4">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
+      <c r="B21" s="4">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:3">
+      <c r="B22" s="4">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:3">
+      <c r="B23" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
+      <c r="B24" s="4">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
+      <c r="B25" s="4">
+        <v>1022</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
+      <c r="B26" s="4">
+        <v>1023</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
+      <c r="B27" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:3">
+      <c r="B28" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:3">
+      <c r="B29" s="4">
+        <v>1026</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
+      <c r="B30" s="4">
+        <v>1027</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
+      <c r="B31" s="4">
+        <v>1028</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
+      <c r="B32" s="4">
+        <v>1029</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
+      <c r="B33" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
+      <c r="B34" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
+      <c r="B35" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
+      <c r="B36" s="4">
+        <v>1033</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
+      <c r="B37" s="4">
+        <v>1034</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
+      <c r="B38" s="4">
+        <v>1035</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.2083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:4">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:4">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:4">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:4">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:4">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="2"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -1414,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2008,8 +2008,8 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>difficulty</t>
   </si>
   <si>
+    <t>cost_time</t>
+  </si>
+  <si>
     <t>*qte_appear_infos</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>难度</t>
   </si>
   <si>
+    <t>消耗时间</t>
+  </si>
+  <si>
     <t>开始区间</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>简单</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>炒锅</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>水产,昂贵</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
   </si>
   <si>
     <t>炸锅</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>肉,重油,饱腹</t>
@@ -1412,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1426,11 +1441,12 @@
     <col min="7" max="7" width="10.1333333333333" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.1666666666667" style="10" customWidth="1"/>
     <col min="9" max="9" width="11.1916666666667" customWidth="1"/>
-    <col min="10" max="10" width="10.325" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="11.1916666666667" customWidth="1"/>
+    <col min="11" max="11" width="10.325" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" ht="16.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,41 +1474,47 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:11">
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:11">
+      <c r="J2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1503,83 +1525,90 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:11">
+      <c r="L3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>10001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9">
         <v>1003</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:11">
+        <v>39</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1588,234 +1617,265 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>10002</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1002</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>10003</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1006</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>10004</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9">
         <v>1001</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:12">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>10005</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9">
         <v>1005</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="9:11">
+        <v>53</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="9:12">
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="9:11">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="9:12">
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="9:11">
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="9:12">
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="9:11">
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="9:12">
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="9:11">
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="9:12">
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="9:11">
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="9:12">
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="9:11">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="9:12">
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="9:11">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="9:12">
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="9:11">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="9:12">
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="9:11">
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="9:12">
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="9:11">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="9:12">
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="9:11">
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="9:12">
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="9:11">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="9:12">
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="9:11">
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="9:12">
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="9:11">
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="9:12">
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="9:11">
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="9:12">
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="9:11">
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="9:12">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="9:11">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="9:12">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1828,7 +1888,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+      <selection activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1852,71 +1912,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
@@ -1925,19 +1985,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>115</v>
@@ -1949,19 +2009,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -2027,27 +2087,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -2056,7 +2116,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2065,7 +2125,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2073,7 +2133,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2081,7 +2141,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2089,7 +2149,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2097,7 +2157,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2105,7 +2165,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2113,7 +2173,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2121,7 +2181,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2129,7 +2189,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2137,7 +2197,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2145,7 +2205,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2153,7 +2213,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2161,7 +2221,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2169,7 +2229,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2177,7 +2237,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2185,7 +2245,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2193,7 +2253,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2201,7 +2261,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2209,7 +2269,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2217,7 +2277,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2225,7 +2285,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2233,7 +2293,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2241,7 +2301,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2249,7 +2309,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2257,7 +2317,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2265,7 +2325,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2273,7 +2333,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2281,7 +2341,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2289,7 +2349,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2297,7 +2357,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2305,7 +2365,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2313,7 +2373,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2321,7 +2381,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2329,7 +2389,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2366,34 +2426,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2401,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2412,10 +2472,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2423,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2434,10 +2494,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2445,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
     <sheet name="QTE" sheetId="2" r:id="rId2"/>
-    <sheet name="口味" sheetId="4" r:id="rId3"/>
-    <sheet name="制作场景" sheetId="3" r:id="rId4"/>
+    <sheet name="QTE组合" sheetId="5" r:id="rId3"/>
+    <sheet name="口味" sheetId="4" r:id="rId4"/>
+    <sheet name="制作场景" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -202,9 +203,6 @@
     <t>素,家常</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -220,9 +218,6 @@
     <t>QTEId</t>
   </si>
   <si>
-    <t>加分</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -235,9 +230,6 @@
     <t>加盐</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>按S键/n往菜里加入盐</t>
   </si>
   <si>
@@ -250,13 +242,13 @@
     <t>加醋</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>按D键/n往菜里加入醋</t>
   </si>
   <si>
     <t>酸</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>肉</t>
@@ -572,7 +564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +586,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,10 +935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,7 +947,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,7 +956,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,10 +968,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,28 +992,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1015,37 +1025,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1055,7 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,8 +1067,17 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
@@ -1080,32 +1090,78 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1429,19 +1485,18 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.9083333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.35" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.1916666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.1916666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.9083333333333" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.35" style="25" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="25" customWidth="1"/>
+    <col min="9" max="10" width="11.1916666666667" customWidth="1"/>
     <col min="11" max="11" width="10.325" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
@@ -1471,14 +1526,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" ht="16.5" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -1493,26 +1548,26 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -1521,18 +1576,18 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1561,16 +1616,16 @@
       <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1585,26 +1640,26 @@
       <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="22">
         <v>1003</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1613,18 +1668,18 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1639,26 +1694,26 @@
       <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1673,26 +1728,26 @@
       <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1707,26 +1762,26 @@
       <c r="D9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="22">
         <v>1001</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1741,136 +1796,136 @@
       <c r="D10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="22">
         <v>1005</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="9:12">
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="9:12">
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="9:12">
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="9:12">
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="9:12">
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="9:12">
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="9:12">
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="9:12">
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="9:12">
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="9:12">
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="9:12">
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="9:12">
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="9:12">
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="9:12">
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="9:12">
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="9:12">
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1885,23 +1940,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="11.825" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="47.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="25.475" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="47.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.475" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1918,16 +1972,13 @@
         <v>62</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1937,125 +1988,110 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>115</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5">
+      <c r="E5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="16.5" spans="7:7">
-      <c r="G9" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" ht="16.5" spans="6:6">
+      <c r="F9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2064,6 +2100,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="11.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.6833333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.7083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" ht="16.5" spans="6:6">
+      <c r="F9" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C38"/>
@@ -2087,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -2116,7 +2299,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2125,7 +2308,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2133,7 +2316,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2141,7 +2324,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2149,7 +2332,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2157,7 +2340,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2165,7 +2348,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2173,7 +2356,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2181,7 +2364,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2189,7 +2372,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2197,7 +2380,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2205,7 +2388,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2213,7 +2396,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2221,7 +2404,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2229,7 +2412,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2237,7 +2420,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2245,7 +2428,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2253,7 +2436,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2261,7 +2444,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2269,7 +2452,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2277,7 +2460,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2285,7 +2468,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2293,7 +2476,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2301,7 +2484,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2309,7 +2492,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2317,7 +2500,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2325,7 +2508,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2333,7 +2516,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2341,7 +2524,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2349,7 +2532,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2357,7 +2540,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2365,7 +2548,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2373,7 +2556,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2381,7 +2564,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2389,7 +2572,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
@@ -2426,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2453,7 +2636,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2461,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2472,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2483,10 +2666,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2494,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2505,10 +2688,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="1"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>##var</t>
   </si>
@@ -143,43 +143,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.65</t>
+    <t>炒虾</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>水产,昂贵</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>炸鸡柳</t>
+  </si>
+  <si>
+    <t>炸锅</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>炒虾</t>
-  </si>
-  <si>
-    <t>炒锅</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>水产,昂贵</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>炸鸡柳</t>
-  </si>
-  <si>
-    <t>炸锅</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>肉,重油,饱腹</t>
-  </si>
-  <si>
-    <t>0.3</t>
   </si>
   <si>
     <t>煮牛肉</t>
@@ -564,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,7 +935,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,7 +944,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,52 +956,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1025,13 +1013,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,37 +1034,34 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1149,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1483,10 +1471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1665,40 +1653,54 @@
     </row>
     <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="7">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="J6" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
@@ -1711,32 +1713,32 @@
         <v>38</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1001</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>37</v>
@@ -1745,32 +1747,32 @@
         <v>38</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="22">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>37</v>
@@ -1779,45 +1781,17 @@
         <v>38</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7">
-        <v>10005</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>43</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="9:12">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="9:12">
       <c r="I11" s="25"/>
@@ -1920,12 +1894,6 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="9:12">
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1942,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1966,16 +1934,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -1995,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2006,22 +1974,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2030,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2051,16 +2019,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2105,7 +2073,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2196,10 +2164,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F6" s="22"/>
     </row>
@@ -2212,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>40</v>
@@ -2223,13 +2191,13 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -2252,7 +2220,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2270,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -2299,7 +2267,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2308,7 +2276,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2316,7 +2284,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2324,7 +2292,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2332,7 +2300,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2340,7 +2308,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2348,7 +2316,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2356,7 +2324,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2364,7 +2332,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2372,7 +2340,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2380,7 +2348,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2388,7 +2356,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2396,7 +2364,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2404,7 +2372,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2412,7 +2380,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2420,7 +2388,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2428,7 +2396,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2436,7 +2404,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2444,7 +2412,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2452,7 +2420,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2460,7 +2428,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2468,7 +2436,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2476,7 +2444,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2484,7 +2452,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2492,7 +2460,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2500,7 +2468,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2508,7 +2476,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2516,7 +2484,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2524,7 +2492,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2532,7 +2500,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2540,7 +2508,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2548,7 +2516,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2556,7 +2524,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2564,7 +2532,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2572,7 +2540,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2555,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2609,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2636,7 +2604,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2644,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2655,10 +2623,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2666,10 +2634,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2677,10 +2645,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2688,10 +2656,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t>##var</t>
   </si>
@@ -242,6 +242,24 @@
     <t>酸</t>
   </si>
   <si>
+    <t>加糖</t>
+  </si>
+  <si>
+    <t>按A键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>加辣</t>
+  </si>
+  <si>
+    <t>按Q键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -293,13 +311,7 @@
     <t>清淡</t>
   </si>
   <si>
-    <t>甜</t>
-  </si>
-  <si>
     <t>苦</t>
-  </si>
-  <si>
-    <t>辣</t>
   </si>
   <si>
     <t>鲜</t>
@@ -1065,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
@@ -1117,6 +1129,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1473,17 +1488,17 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.9083333333333" style="25" customWidth="1"/>
-    <col min="6" max="6" width="13.35" style="25" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="25" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.9083333333333" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.35" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="26" customWidth="1"/>
     <col min="9" max="10" width="11.1916666666667" customWidth="1"/>
     <col min="11" max="11" width="10.325" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
@@ -1514,14 +1529,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" ht="16.5" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -1548,14 +1563,14 @@
       <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -1568,14 +1583,14 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1607,13 +1622,13 @@
       <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1638,16 +1653,16 @@
       <c r="H5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1672,16 +1687,16 @@
       <c r="H6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1706,16 +1721,16 @@
       <c r="H7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="38" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1740,16 +1755,16 @@
       <c r="H8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1774,126 +1789,126 @@
       <c r="H9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="9:12">
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="9:12">
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="9:12">
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="9:12">
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="9:12">
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="9:12">
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="9:12">
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="9:12">
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="9:12">
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="9:12">
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="9:12">
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="9:12">
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="9:12">
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="9:12">
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="9:12">
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="9:12">
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1910,8 +1925,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2034,21 +2049,47 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="25">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="7"/>
@@ -2191,7 +2232,7 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>39</v>
@@ -2220,7 +2261,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2267,7 +2308,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2276,7 +2317,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2284,7 +2325,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2292,7 +2333,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2300,7 +2341,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2308,7 +2349,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2316,7 +2357,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2324,7 +2365,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2332,7 +2373,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2340,7 +2381,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2348,7 +2389,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2356,7 +2397,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2364,7 +2405,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2372,7 +2413,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2380,7 +2421,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2388,7 +2429,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2404,7 +2445,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2412,7 +2453,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2420,7 +2461,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2436,7 +2477,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2444,7 +2485,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2452,7 +2493,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2460,7 +2501,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2468,7 +2509,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2476,7 +2517,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2484,7 +2525,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2492,7 +2533,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2500,7 +2541,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2508,7 +2549,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2516,7 +2557,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2524,7 +2565,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2532,7 +2573,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2540,7 +2581,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2577,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2604,7 +2645,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2612,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2623,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2634,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2645,10 +2686,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2656,10 +2697,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>蒸蛋</t>
   </si>
   <si>
-    <t>蒸锅</t>
+    <t>蒸笼</t>
   </si>
   <si>
     <t>家常,清淡</t>
@@ -158,10 +158,10 @@
     <t>0.8</t>
   </si>
   <si>
-    <t>炸鸡柳</t>
-  </si>
-  <si>
-    <t>炸锅</t>
+    <t>烤羊肉</t>
+  </si>
+  <si>
+    <t>烤架</t>
   </si>
   <si>
     <t>1006</t>
@@ -191,9 +191,6 @@
     <t>烤土豆</t>
   </si>
   <si>
-    <t>烤锅</t>
-  </si>
-  <si>
     <t>素,家常</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Boil</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/BarbecueModule.prefab</t>
   </si>
   <si>
     <t>Fry</t>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -440,27 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -474,14 +453,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,6 +492,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,6 +555,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -609,18 +609,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,19 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,115 +735,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,21 +833,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -876,6 +861,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,189 +932,189 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1128,36 +1128,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1170,52 +1170,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1777,13 +1777,13 @@
         <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E9" s="22">
         <v>1005</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
@@ -1925,8 +1925,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1949,16 +1949,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -1978,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1989,22 +1989,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2013,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2034,16 +2034,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2055,16 +2055,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2076,16 +2076,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
@@ -2232,7 +2232,7 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>39</v>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2317,7 +2317,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2325,7 +2325,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2333,7 +2333,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2341,7 +2341,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2349,7 +2349,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2357,7 +2357,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2365,7 +2365,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2373,7 +2373,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2381,7 +2381,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2389,7 +2389,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2397,7 +2397,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2405,7 +2405,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2413,7 +2413,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2421,7 +2421,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2429,7 +2429,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2437,7 +2437,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2445,7 +2445,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2453,7 +2453,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2461,7 +2461,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2469,7 +2469,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2477,7 +2477,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2485,7 +2485,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2493,7 +2493,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2501,7 +2501,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2509,7 +2509,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2517,7 +2517,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2525,7 +2525,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2533,7 +2533,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2541,7 +2541,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2549,7 +2549,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2557,7 +2557,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2565,7 +2565,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2573,7 +2573,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2581,7 +2581,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2595,8 +2595,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2645,7 +2645,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2653,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2664,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2678,7 +2678,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2689,7 +2689,7 @@
         <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2700,7 +2700,7 @@
         <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -362,7 +362,7 @@
     <t>加载资源</t>
   </si>
   <si>
-    <t>Cook</t>
+    <t>Fry</t>
   </si>
   <si>
     <t>Assets/GameRes/Prefabs/FryModule.prefab</t>
@@ -374,7 +374,7 @@
     <t>Assets/GameRes/Prefabs/BarbecueModule.prefab</t>
   </si>
   <si>
-    <t>Fry</t>
+    <t>Deepfry</t>
   </si>
   <si>
     <t>Steam</t>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2596,7 +2596,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>辣</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>0.1</t>
@@ -1077,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -1125,6 +1137,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,10 +1513,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.9083333333333" style="26" customWidth="1"/>
-    <col min="6" max="6" width="13.35" style="26" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="26" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.9083333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13.35" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" style="28" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="28" customWidth="1"/>
     <col min="9" max="10" width="11.1916666666667" customWidth="1"/>
     <col min="11" max="11" width="10.325" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
@@ -1529,14 +1547,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" ht="16.5" spans="1:12">
       <c r="A2" s="3" t="s">
@@ -1551,26 +1569,26 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -1579,18 +1597,18 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1622,13 +1640,13 @@
       <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1653,16 +1671,16 @@
       <c r="H5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1687,16 +1705,16 @@
       <c r="H6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1721,16 +1739,16 @@
       <c r="H7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1755,16 +1773,16 @@
       <c r="H8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1789,126 +1807,126 @@
       <c r="H9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="9:12">
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="9:12">
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="9:12">
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="9:12">
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="9:12">
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="9:12">
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="9:12">
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="9:12">
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="9:12">
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="9:12">
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="9:12">
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="9:12">
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="9:12">
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="9:12">
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="9:12">
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="9:12">
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1926,7 +1944,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1971,13 +1989,13 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
@@ -2087,7 +2105,7 @@
       <c r="F7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="27">
         <v>113</v>
       </c>
     </row>
@@ -2111,10 +2129,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2214,17 +2232,15 @@
     </row>
     <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="23"/>
-      <c r="B7" s="23">
-        <v>2</v>
-      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="21" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -2232,18 +2248,68 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="D9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" ht="16.5" spans="6:6">
-      <c r="F9" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" ht="16.5" spans="3:6">
+      <c r="C11" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2308,7 +2374,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2317,7 +2383,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2325,7 +2391,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2333,7 +2399,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2341,7 +2407,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2349,7 +2415,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2357,7 +2423,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2365,7 +2431,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2373,7 +2439,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2381,7 +2447,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2389,7 +2455,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2397,7 +2463,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2405,7 +2471,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2413,7 +2479,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2421,7 +2487,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2429,7 +2495,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2453,7 +2519,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2477,7 +2543,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2485,7 +2551,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2493,7 +2559,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2501,7 +2567,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2509,7 +2575,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2517,7 +2583,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2525,7 +2591,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2533,7 +2599,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2541,7 +2607,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2549,7 +2615,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2557,7 +2623,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2565,7 +2631,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2573,7 +2639,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2581,7 +2647,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2595,8 +2661,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2618,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2645,7 +2711,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2653,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2664,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2675,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2686,10 +2752,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2697,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655" activeTab="2"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -47,30 +47,180 @@
     <t>cost_time</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>food.cookTools</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=food.TbMaterial</t>
+  </si>
+  <si>
+    <t>(list#sep=,),food.flavorTag</t>
+  </si>
+  <si>
+    <t>food.cookDifficulty</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>菜谱id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>制作方式</t>
+  </si>
+  <si>
+    <t>关联食材</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>反标签</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>消耗时间</t>
+  </si>
+  <si>
+    <t>蒸蛋</t>
+  </si>
+  <si>
+    <t>蒸笼</t>
+  </si>
+  <si>
+    <t>1002,1003</t>
+  </si>
+  <si>
+    <t>家常,清淡</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>炒虾</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>水产,昂贵</t>
+  </si>
+  <si>
+    <t>烤羊肉</t>
+  </si>
+  <si>
+    <t>烤架</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
+  </si>
+  <si>
+    <t>煮牛肉</t>
+  </si>
+  <si>
+    <t>煮锅</t>
+  </si>
+  <si>
+    <t>肉,家常</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>烤土豆</t>
+  </si>
+  <si>
+    <t>素,家常</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>anim_res_path</t>
+  </si>
+  <si>
+    <t>key_code</t>
+  </si>
+  <si>
+    <t>food.flavorTag</t>
+  </si>
+  <si>
+    <t>QTEId</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>ascii码</t>
+  </si>
+  <si>
+    <t>加盐</t>
+  </si>
+  <si>
+    <t>按S键/n往菜里加入盐</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AddSaltAnim.prefab</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>加醋</t>
+  </si>
+  <si>
+    <t>按D键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>加糖</t>
+  </si>
+  <si>
+    <t>按A键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>加辣</t>
+  </si>
+  <si>
+    <t>按Q键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
     <t>*qte_appear_infos</t>
   </si>
   <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>food.cookTools</t>
-  </si>
-  <si>
-    <t>list,int#ref=food.TbMaterial</t>
-  </si>
-  <si>
-    <t>(list#sep=,),food.flavorTag</t>
-  </si>
-  <si>
-    <t>food.cookDifficulty</t>
-  </si>
-  <si>
     <t>(list),food.qte_info</t>
   </si>
   <si>
@@ -83,33 +233,6 @@
     <t>qte_id</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>菜谱id</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>制作方式</t>
-  </si>
-  <si>
-    <t>关联食材</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>反标签</t>
-  </si>
-  <si>
-    <t>难度</t>
-  </si>
-  <si>
-    <t>消耗时间</t>
-  </si>
-  <si>
     <t>开始区间</t>
   </si>
   <si>
@@ -119,21 +242,6 @@
     <t>对应QTE玩法</t>
   </si>
   <si>
-    <t>蒸蛋</t>
-  </si>
-  <si>
-    <t>蒸笼</t>
-  </si>
-  <si>
-    <t>家常,清淡</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -143,118 +251,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>炒虾</t>
-  </si>
-  <si>
-    <t>炒锅</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>水产,昂贵</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>烤羊肉</t>
-  </si>
-  <si>
-    <t>烤架</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>肉,重油,饱腹</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>煮牛肉</t>
-  </si>
-  <si>
-    <t>煮锅</t>
-  </si>
-  <si>
-    <t>肉,家常</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>烤土豆</t>
-  </si>
-  <si>
-    <t>素,家常</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>anim_res_path</t>
-  </si>
-  <si>
-    <t>key_code</t>
-  </si>
-  <si>
-    <t>food.flavorTag</t>
-  </si>
-  <si>
-    <t>QTEId</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>动画</t>
-  </si>
-  <si>
-    <t>ascii码</t>
-  </si>
-  <si>
-    <t>加盐</t>
-  </si>
-  <si>
-    <t>按S键/n往菜里加入盐</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AddSaltAnim.prefab</t>
-  </si>
-  <si>
-    <t>咸</t>
-  </si>
-  <si>
-    <t>加醋</t>
-  </si>
-  <si>
-    <t>按D键/n往菜里加入醋</t>
-  </si>
-  <si>
-    <t>酸</t>
-  </si>
-  <si>
-    <t>加糖</t>
-  </si>
-  <si>
-    <t>按A键/n往菜里加入醋</t>
-  </si>
-  <si>
-    <t>甜</t>
-  </si>
-  <si>
-    <t>加辣</t>
-  </si>
-  <si>
-    <t>按Q键/n往菜里加入醋</t>
-  </si>
-  <si>
-    <t>辣</t>
   </si>
   <si>
     <t>0.7</t>
@@ -582,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,12 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +959,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,16 +983,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1013,83 +1007,83 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -1143,9 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1154,35 +1145,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1504,25 +1470,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.9083333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.35" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="28" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" style="27" customWidth="1"/>
+    <col min="6" max="6" width="33.6666666666667" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="27" customWidth="1"/>
     <col min="9" max="10" width="11.1916666666667" customWidth="1"/>
     <col min="11" max="11" width="10.325" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:12">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,392 +1513,302 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:12">
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1003</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1001</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:12">
+        <v>42</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E8" s="22">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1005</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="9:12">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="9:12">
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="9:12">
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="9:12">
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="9:12">
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="9:12">
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="9:12">
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="9:12">
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="9:12">
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="9:12">
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="9:12">
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="9:12">
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="9:12">
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="9:12">
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="9:12">
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="9:12">
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="9:12">
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1967,62 +1843,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>61</v>
+      <c r="D2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2031,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2052,16 +1928,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2073,16 +1949,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2094,18 +1970,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="27">
+        <v>65</v>
+      </c>
+      <c r="G7" s="26">
         <v>113</v>
       </c>
     </row>
@@ -2131,8 +2007,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2152,20 +2028,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2176,28 +2052,28 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="19" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2206,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -2223,10 +2099,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F6" s="22"/>
     </row>
@@ -2248,10 +2124,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>82</v>
@@ -2264,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F9" s="22"/>
     </row>
@@ -2281,10 +2157,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F10" s="22"/>
     </row>
@@ -2295,7 +2171,7 @@
       <c r="D11" s="24">
         <v>0.5</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>3</v>
       </c>
       <c r="F11" s="22"/>
@@ -2307,7 +2183,7 @@
       <c r="D12" s="24">
         <v>0.8</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>4</v>
       </c>
     </row>
@@ -2345,27 +2221,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -2503,7 +2379,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2511,7 +2387,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2527,7 +2403,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2535,7 +2411,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2692,21 +2568,21 @@
     </row>
     <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18585" windowHeight="13530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -1472,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2007,8 +2007,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="13530" activeTab="2"/>
+    <workbookView windowWidth="25605" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>素,家常</t>
+  </si>
+  <si>
+    <t>蜂蜜松饼</t>
+  </si>
+  <si>
+    <t>1008,1009</t>
+  </si>
+  <si>
+    <t>甜,昂贵</t>
   </si>
   <si>
     <t>desc</t>
@@ -1472,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1700,8 +1709,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="9:12">
-      <c r="I9" s="27"/>
+    <row r="9" ht="16.5" spans="2:12">
+      <c r="B9" s="7">
+        <v>10006</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -1843,16 +1872,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -1872,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1883,22 +1912,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -1907,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -1928,16 +1957,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1949,16 +1978,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -1970,16 +1999,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G7" s="26">
         <v>113</v>
@@ -2007,7 +2036,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2028,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
@@ -2041,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2052,13 +2081,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
@@ -2067,13 +2096,13 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2082,13 +2111,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -2099,10 +2128,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="22"/>
     </row>
@@ -2110,13 +2139,13 @@
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -2124,13 +2153,13 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -2140,13 +2169,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F9" s="22"/>
     </row>
@@ -2154,13 +2183,13 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="22"/>
     </row>
@@ -2221,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -2250,7 +2279,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2259,7 +2288,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2267,7 +2296,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2275,7 +2304,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2283,7 +2312,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2291,7 +2320,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2299,7 +2328,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2307,7 +2336,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2315,7 +2344,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2323,7 +2352,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2331,7 +2360,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2339,7 +2368,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2347,7 +2376,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2355,7 +2384,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2363,7 +2392,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2371,7 +2400,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2379,7 +2408,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2387,7 +2416,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2395,7 +2424,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2403,7 +2432,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2411,7 +2440,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -2419,7 +2448,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -2427,7 +2456,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -2435,7 +2464,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -2443,7 +2472,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -2451,7 +2480,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -2459,7 +2488,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -2467,7 +2496,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -2475,7 +2504,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -2483,7 +2512,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -2491,7 +2520,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -2499,7 +2528,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -2507,7 +2536,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -2515,7 +2544,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -2523,7 +2552,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2560,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -2587,7 +2616,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -2595,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -2606,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -2617,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -2628,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -2639,10 +2668,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69C3CD-9986-4370-B737-630176E9AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView xWindow="14730" yWindow="1755" windowWidth="18510" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
   <si>
     <t>##var</t>
   </si>
@@ -402,19 +408,221 @@
   </si>
   <si>
     <t>Barbecue</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021,1015</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产,热气,软烂,酸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣白菜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巧,辣</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒饭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022,1003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱腹,小炒,家常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小炒,家常,实惠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017,1003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒青菜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常,实惠,清淡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014,1018,1006</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常,荤素搭配</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆炖牛肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖胃,软烂,肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006,1013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤羹,软烂,野味</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤章鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产,重油,烧烤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤,素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉蒸饺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008,1026</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气,肉,家常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜米糕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>清淡,小巧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧麦</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024,1027</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气,素,家常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸扇贝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1028</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气,水产,家常</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸素包子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>热气,素,家常,饱腹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011,1025,1008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1019,1008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022,1008,1026</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,137 +669,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,192 +712,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -846,290 +772,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1146,76 +815,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1473,31 +1121,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" style="27" customWidth="1"/>
-    <col min="6" max="6" width="33.6666666666667" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="27" customWidth="1"/>
-    <col min="9" max="10" width="11.1916666666667" customWidth="1"/>
-    <col min="11" max="11" width="10.325" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="20" customWidth="1"/>
+    <col min="9" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,11 +1170,11 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1539,23 +1187,23 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,11 +1228,11 @@
       <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>10001</v>
@@ -1595,21 +1243,21 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>10002</v>
@@ -1620,21 +1268,21 @@
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>10003</v>
@@ -1645,21 +1293,21 @@
       <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>10004</v>
@@ -1670,21 +1318,21 @@
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="15">
         <v>1001</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>10005</v>
@@ -1695,173 +1343,535 @@
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="15">
         <v>1005</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:12">
-      <c r="B9" s="7">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="30">
         <v>10006</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="30">
+        <v>10007</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="30">
+        <v>10008</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="30">
+        <v>10009</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="30">
+        <v>10010</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="30">
+        <v>10011</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="30">
+        <v>10012</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="30">
+        <v>10013</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="30">
+        <v>10014</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="30">
+        <v>10015</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="30">
+        <v>10016</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="30">
+        <v>10017</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="30">
+        <v>10018</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="30">
+        <v>10019</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="30">
+        <v>10020</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="30">
+        <v>10021</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="30">
+        <v>10022</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="30">
+        <v>10023</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>10024</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="9:12">
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="9:12">
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="9:12">
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="9:12">
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="9:12">
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="9:12">
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="9:12">
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="9:12">
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="9:12">
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="9:12">
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="9:12">
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="9:12">
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="9:12">
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="9:12">
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="9:12">
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="9:12">
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="9:12">
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="47.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="25.475" customWidth="1"/>
+    <col min="5" max="5" width="47.125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1894,20 +1904,20 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>1</v>
@@ -1938,20 +1948,20 @@
       <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G4">
         <v>115</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>2</v>
@@ -1959,20 +1969,20 @@
       <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>3</v>
@@ -1980,20 +1990,20 @@
       <c r="C6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>65</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>4</v>
@@ -2001,218 +2011,217 @@
       <c r="C7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>113</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" ht="16.5" spans="6:6">
-      <c r="F9" s="22"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.6833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
         <v>0.6</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="21" t="s">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21" t="s">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" ht="16.5" spans="3:6">
-      <c r="C11" s="24">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="17">
         <v>0.1</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="17">
         <v>0.5</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="17">
         <v>0.3</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="17">
         <v>0.8</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2221,28 +2230,27 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="4">
         <v>1001</v>
@@ -2282,7 +2290,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>1002</v>
@@ -2291,7 +2299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>1003</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>1004</v>
       </c>
@@ -2307,7 +2315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:3">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>1005</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="2:3">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>1006</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="2:3">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>1007</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:3">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>1008</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="2:3">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>1009</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="2:3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>1010</v>
       </c>
@@ -2355,7 +2363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>1011</v>
       </c>
@@ -2363,7 +2371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="2:3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>1012</v>
       </c>
@@ -2371,7 +2379,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="2:3">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>1013</v>
       </c>
@@ -2379,7 +2387,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="2:3">
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>1014</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:3">
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>1015</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:3">
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>1016</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:3">
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>1017</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:3">
+    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>1018</v>
       </c>
@@ -2419,7 +2427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="2:3">
+    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>1019</v>
       </c>
@@ -2427,7 +2435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="2:3">
+    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>1020</v>
       </c>
@@ -2435,7 +2443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="2:3">
+    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>1021</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="2:3">
+    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>1022</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="2:3">
+    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>1023</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="2:3">
+    <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>1024</v>
       </c>
@@ -2467,7 +2475,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="2:3">
+    <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>1025</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="2:3">
+    <row r="29" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>1026</v>
       </c>
@@ -2483,7 +2491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="2:3">
+    <row r="30" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>1027</v>
       </c>
@@ -2491,7 +2499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="2:3">
+    <row r="31" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>1028</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="2:3">
+    <row r="32" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>1029</v>
       </c>
@@ -2507,7 +2515,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="2:3">
+    <row r="33" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>1030</v>
       </c>
@@ -2515,7 +2523,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="2:3">
+    <row r="34" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>1031</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="2:3">
+    <row r="35" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>1032</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="2:3">
+    <row r="36" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>1033</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="2:3">
+    <row r="37" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>1034</v>
       </c>
@@ -2547,7 +2555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="2:3">
+    <row r="38" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>1035</v>
       </c>
@@ -2556,32 +2564,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.2083333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2609,7 +2616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="2:4">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -2630,7 +2637,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:4">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -2641,7 +2648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:4">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -2652,7 +2659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:4">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:4">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -2675,7 +2682,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69C3CD-9986-4370-B737-630176E9AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2324D-A102-4FDB-BA75-C6DECEB59DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="1755" windowWidth="18510" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="5130" windowWidth="34455" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
   <si>
     <t>##var</t>
   </si>
@@ -615,6 +615,18 @@
   </si>
   <si>
     <t>1026</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂花酒酿元宵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030,1031,1032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜,昂贵,小巧</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -634,12 +646,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -647,24 +661,28 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="微软雅黑 Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -829,6 +847,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,9 +868,6 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1127,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1358,22 +1376,22 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="30">
+      <c r="B9" s="24">
         <v>10006</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="23" t="s">
@@ -1381,22 +1399,22 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="30">
+      <c r="B10" s="24">
         <v>10007</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="23" t="s">
@@ -1407,22 +1425,22 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="30">
+      <c r="B11" s="24">
         <v>10008</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="23" t="s">
@@ -1433,22 +1451,22 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
+      <c r="B12" s="24">
         <v>10009</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="23" t="s">
@@ -1459,22 +1477,22 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
+      <c r="B13" s="24">
         <v>10010</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="23" t="s">
@@ -1485,22 +1503,22 @@
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="30">
+      <c r="B14" s="24">
         <v>10011</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="23" t="s">
@@ -1511,22 +1529,22 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="30">
+      <c r="B15" s="24">
         <v>10012</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="23" t="s">
@@ -1537,22 +1555,22 @@
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="30">
+      <c r="B16" s="24">
         <v>10013</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="23" t="s">
@@ -1563,22 +1581,22 @@
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30">
+      <c r="B17" s="24">
         <v>10014</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -1589,22 +1607,22 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30">
+      <c r="B18" s="24">
         <v>10015</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -1615,22 +1633,22 @@
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30">
+      <c r="B19" s="24">
         <v>10016</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -1641,22 +1659,22 @@
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
+      <c r="B20" s="24">
         <v>10017</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -1667,22 +1685,22 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30">
+      <c r="B21" s="24">
         <v>10018</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -1693,22 +1711,22 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="30">
+      <c r="B22" s="24">
         <v>10019</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -1719,22 +1737,22 @@
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="30">
+      <c r="B23" s="24">
         <v>10020</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="23" t="s">
@@ -1745,22 +1763,22 @@
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="30">
+      <c r="B24" s="24">
         <v>10021</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="23" t="s">
@@ -1771,22 +1789,22 @@
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="30">
+      <c r="B25" s="24">
         <v>10022</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="23" t="s">
@@ -1797,22 +1815,22 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+      <c r="B26" s="24">
         <v>10023</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="23" t="s">
@@ -1847,6 +1865,29 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>10025</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2065,11 +2106,11 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2078,11 +2119,11 @@
       <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2324D-A102-4FDB-BA75-C6DECEB59DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="5130" windowWidth="34455" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="182">
   <si>
     <t>##var</t>
   </si>
@@ -161,6 +155,159 @@
     <t>素,家常</t>
   </si>
   <si>
+    <t>红烧肉</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+  </si>
+  <si>
+    <t>1021,1015</t>
+  </si>
+  <si>
+    <t>水产,热气,软烂,酸</t>
+  </si>
+  <si>
+    <t>辣白菜</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>小巧,辣</t>
+  </si>
+  <si>
+    <t>蛋炒饭</t>
+  </si>
+  <si>
+    <t>1022,1003</t>
+  </si>
+  <si>
+    <t>饱腹,小炒,家常</t>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>小炒,家常,实惠</t>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+  </si>
+  <si>
+    <t>1017,1003</t>
+  </si>
+  <si>
+    <t>炒青菜</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>家常,实惠,清淡</t>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+  </si>
+  <si>
+    <t>1014,1018,1006</t>
+  </si>
+  <si>
+    <t>家常,荤素搭配</t>
+  </si>
+  <si>
+    <t>土豆炖牛肉</t>
+  </si>
+  <si>
+    <t>1001,1005</t>
+  </si>
+  <si>
+    <t>暖胃,软烂,肉</t>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+  </si>
+  <si>
+    <t>1006,1013</t>
+  </si>
+  <si>
+    <t>汤羹,软烂,野味</t>
+  </si>
+  <si>
+    <t>烤章鱼</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>水产,重油,烧烤</t>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>烧烤,素</t>
+  </si>
+  <si>
+    <t>猪肉蒸饺</t>
+  </si>
+  <si>
+    <t>1008,1026</t>
+  </si>
+  <si>
+    <t>热气,肉,家常</t>
+  </si>
+  <si>
+    <t>南瓜米糕</t>
+  </si>
+  <si>
+    <t>1011,1025,1008</t>
+  </si>
+  <si>
+    <t>清淡,小巧</t>
+  </si>
+  <si>
+    <t>烧麦</t>
+  </si>
+  <si>
+    <t>1022,1008,1026</t>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+  </si>
+  <si>
+    <t>1024,1027</t>
+  </si>
+  <si>
+    <t>热气,素,家常</t>
+  </si>
+  <si>
+    <t>蒸扇贝</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>热气,水产,家常</t>
+  </si>
+  <si>
+    <t>蒸素包子</t>
+  </si>
+  <si>
+    <t>1003,1019,1008</t>
+  </si>
+  <si>
+    <t>热气,素,家常,饱腹</t>
+  </si>
+  <si>
     <t>蜂蜜松饼</t>
   </si>
   <si>
@@ -170,6 +317,15 @@
     <t>甜,昂贵</t>
   </si>
   <si>
+    <t>桂花酒酿元宵</t>
+  </si>
+  <si>
+    <t>1030,1031,1032</t>
+  </si>
+  <si>
+    <t>甜,昂贵,小巧</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -408,233 +564,19 @@
   </si>
   <si>
     <t>Barbecue</t>
-  </si>
-  <si>
-    <t>酸菜鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021,1015</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产,热气,软烂,酸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣白菜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小巧,辣</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋炒饭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022,1003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱腹,小炒,家常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧茄子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小炒,家常,实惠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>西红柿炒鸡蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1017,1003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒青菜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家常,实惠,清淡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫保鸡丁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014,1018,1006</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家常,荤素搭配</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>土豆炖牛肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖胃,软烂,肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鸡炖蘑菇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1006,1013</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤羹,软烂,野味</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤章鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1016</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产,重油,烧烤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤蘑菇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烤,素</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肉蒸饺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008,1026</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气,肉,家常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜米糕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>清淡,小巧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧麦</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸茄子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024,1027</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气,素,家常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸扇贝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1028</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气,水产,家常</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸素包子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>热气,素,家常,饱腹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>红烧肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉,重油,饱腹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1011,1025,1008</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003,1019,1008</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022,1008,1026</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂花酒酿元宵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030,1031,1032</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜,昂贵,小巧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,14 +588,12 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -661,55 +601,166 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="微软雅黑 Light"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,18 +781,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -790,33 +1015,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -833,55 +1312,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1139,31 +1640,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="31.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="26" customWidth="1"/>
     <col min="9" max="10" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,11 +1689,11 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1205,23 +1706,23 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1246,11 +1747,11 @@
       <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>10001</v>
@@ -1261,21 +1762,21 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>10002</v>
@@ -1286,21 +1787,21 @@
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>10003</v>
@@ -1311,21 +1812,21 @@
       <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>10004</v>
@@ -1336,21 +1837,21 @@
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="21">
         <v>1001</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>10005</v>
@@ -1361,549 +1862,550 @@
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="21">
         <v>1005</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+    <row r="9" ht="16.5" spans="2:9">
+      <c r="B9" s="7">
         <v>10006</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="E9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+    <row r="10" ht="16.5" spans="2:12">
+      <c r="B10" s="7">
         <v>10007</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="E10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:12">
+      <c r="B11" s="7">
         <v>10008</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="E11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:12">
+      <c r="B12" s="7">
         <v>10009</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="E12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:12">
+      <c r="B13" s="7">
         <v>10010</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="E13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:12">
+      <c r="B14" s="7">
         <v>10011</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="E14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:12">
+      <c r="B15" s="7">
         <v>10012</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="E15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:12">
+      <c r="B16" s="7">
         <v>10013</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="E16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:12">
+      <c r="B17" s="7">
         <v>10014</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="E17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:12">
+      <c r="B18" s="7">
         <v>10015</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="25" t="s">
+      <c r="E18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:12">
+      <c r="B19" s="7">
         <v>10016</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:12">
+      <c r="B20" s="7">
         <v>10017</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="E20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:12">
+      <c r="B21" s="7">
         <v>10018</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="E21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:12">
+      <c r="B22" s="7">
         <v>10019</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="E22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:12">
+      <c r="B23" s="7">
         <v>10020</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="25" t="s">
+      <c r="E23" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:12">
+      <c r="B24" s="7">
         <v>10021</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="E24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:12">
+      <c r="B25" s="7">
         <v>10022</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="E25" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:12">
+      <c r="B26" s="7">
         <v>10023</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:12">
       <c r="B27" s="7">
         <v>10024</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:9">
       <c r="B28" s="7">
         <v>10025</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="E28" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="30" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
@@ -1912,7 +2414,7 @@
     <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,19 +2425,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1945,152 +2447,153 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>51</v>
+      <c r="F2" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="G4">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>65</v>
+        <v>117</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="G6">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="19">
+        <v>120</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="25">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="F9" s="15"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" ht="16.5" spans="6:6">
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
@@ -2099,170 +2602,170 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13">
+      <c r="C4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14">
+      <c r="C5" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
         <v>0.6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16">
+      <c r="D6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="17">
+      <c r="C9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" ht="16.5" spans="3:6">
+      <c r="C11" s="23">
         <v>0.1</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="23">
         <v>0.5</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="22">
         <v>3</v>
       </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="17">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="23">
         <v>0.3</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="23">
         <v>0.8</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="22">
         <v>4</v>
       </c>
     </row>
@@ -2271,27 +2774,28 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2322,303 +2826,304 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="4">
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
       <c r="B6" s="4">
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:3">
       <c r="B7" s="4">
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:3">
       <c r="B8" s="4">
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:3">
       <c r="B9" s="4">
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:3">
       <c r="B10" s="4">
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:3">
       <c r="B11" s="4">
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:3">
       <c r="B12" s="4">
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:3">
       <c r="B13" s="4">
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:3">
       <c r="B14" s="4">
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:3">
       <c r="B15" s="4">
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:3">
       <c r="B16" s="4">
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:3">
       <c r="B17" s="4">
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:3">
       <c r="B18" s="4">
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:3">
       <c r="B19" s="4">
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:3">
       <c r="B20" s="4">
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
       <c r="B21" s="4">
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:3">
       <c r="B22" s="4">
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:3">
       <c r="B23" s="4">
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
       <c r="B24" s="4">
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
       <c r="B25" s="4">
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
       <c r="B26" s="4">
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
       <c r="B27" s="4">
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:3">
       <c r="B28" s="4">
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:3">
       <c r="B29" s="4">
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
       <c r="B30" s="4">
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
       <c r="B31" s="4">
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
       <c r="B32" s="4">
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
       <c r="B33" s="4">
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
       <c r="B34" s="4">
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
       <c r="B35" s="4">
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
       <c r="B36" s="4">
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
       <c r="B37" s="4">
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
       <c r="B38" s="4">
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -2629,7 +3134,7 @@
     <col min="7" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2657,73 +3162,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="31410" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="口味" sheetId="4" r:id="rId4"/>
     <sheet name="制作场景" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$28</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +50,9 @@
     <t>cost_time</t>
   </si>
   <si>
+    <t>ui_name</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -95,13 +101,16 @@
     <t>消耗时间</t>
   </si>
   <si>
+    <t>对应界面</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
     <t>蒸笼</t>
   </si>
   <si>
-    <t>1002,1003</t>
+    <t>1003</t>
   </si>
   <si>
     <t>家常,清淡</t>
@@ -125,18 +134,24 @@
     <t>水产,昂贵</t>
   </si>
   <si>
+    <t>FryingFoodWindow</t>
+  </si>
+  <si>
     <t>烤羊肉</t>
   </si>
   <si>
     <t>烤架</t>
   </si>
   <si>
-    <t>1006</t>
+    <t>1007</t>
   </si>
   <si>
     <t>肉,重油,饱腹</t>
   </si>
   <si>
+    <t>BarbecueWindow</t>
+  </si>
+  <si>
     <t>煮牛肉</t>
   </si>
   <si>
@@ -164,7 +179,7 @@
     <t>酸菜鱼</t>
   </si>
   <si>
-    <t>1021,1015</t>
+    <t>1015,1021</t>
   </si>
   <si>
     <t>水产,热气,软烂,酸</t>
@@ -182,7 +197,7 @@
     <t>蛋炒饭</t>
   </si>
   <si>
-    <t>1022,1003</t>
+    <t>1003,1022</t>
   </si>
   <si>
     <t>饱腹,小炒,家常</t>
@@ -200,7 +215,7 @@
     <t>西红柿炒鸡蛋</t>
   </si>
   <si>
-    <t>1017,1003</t>
+    <t>1003,1017</t>
   </si>
   <si>
     <t>炒青菜</t>
@@ -215,7 +230,7 @@
     <t>宫保鸡丁</t>
   </si>
   <si>
-    <t>1014,1018,1006</t>
+    <t>1006,1014,1018</t>
   </si>
   <si>
     <t>家常,荤素搭配</t>
@@ -269,7 +284,7 @@
     <t>南瓜米糕</t>
   </si>
   <si>
-    <t>1011,1025,1008</t>
+    <t>1008,1011,1025</t>
   </si>
   <si>
     <t>清淡,小巧</t>
@@ -278,7 +293,7 @@
     <t>烧麦</t>
   </si>
   <si>
-    <t>1022,1008,1026</t>
+    <t>1008,1022,1026</t>
   </si>
   <si>
     <t>蒸茄子</t>
@@ -302,7 +317,7 @@
     <t>蒸素包子</t>
   </si>
   <si>
-    <t>1003,1019,1008</t>
+    <t>1003,1008,1019</t>
   </si>
   <si>
     <t>热气,素,家常,饱腹</t>
@@ -389,6 +404,15 @@
     <t>辣</t>
   </si>
   <si>
+    <t>加酱油</t>
+  </si>
+  <si>
+    <t>按E键/n往菜里加入醋</t>
+  </si>
+  <si>
+    <t>鲜</t>
+  </si>
+  <si>
     <t>*qte_appear_infos</t>
   </si>
   <si>
@@ -492,9 +516,6 @@
   </si>
   <si>
     <t>苦</t>
-  </si>
-  <si>
-    <t>鲜</t>
   </si>
   <si>
     <t>臭</t>
@@ -576,7 +597,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,13 +639,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -760,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,12 +879,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -950,12 +958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,52 +1133,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,83 +1187,83 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -1317,13 +1319,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1648,23 +1644,25 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="31.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="18.975" style="26" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.2166666666667" style="26" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="26" customWidth="1"/>
-    <col min="9" max="10" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="17.7333333333333" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,66 +1687,75 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:9">
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="18" t="s">
         <v>24</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:9">
@@ -1757,73 +1764,79 @@
         <v>10001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>10002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>10003</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:9">
@@ -1832,71 +1845,77 @@
         <v>10004</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21">
         <v>1001</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>10005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" s="21">
         <v>1005</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:9">
+    </row>
+    <row r="9" ht="16.5" spans="2:10">
       <c r="B9" s="7">
         <v>10006</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>30</v>
+      <c r="J9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:12">
@@ -1904,22 +1923,22 @@
         <v>10007</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -1930,24 +1949,26 @@
         <v>10008</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="26"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
@@ -1956,24 +1977,26 @@
         <v>10009</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="26"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
@@ -1982,24 +2005,26 @@
         <v>10010</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="26"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
@@ -2008,24 +2033,26 @@
         <v>10011</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="26"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
@@ -2034,24 +2061,26 @@
         <v>10012</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="26"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
@@ -2060,24 +2089,26 @@
         <v>10013</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="26"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
@@ -2086,22 +2117,22 @@
         <v>10014</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -2112,22 +2143,22 @@
         <v>10015</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -2138,24 +2169,26 @@
         <v>10016</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
@@ -2164,24 +2197,26 @@
         <v>10017</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
@@ -2190,22 +2225,22 @@
         <v>10018</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
@@ -2216,22 +2251,22 @@
         <v>10019</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -2242,22 +2277,22 @@
         <v>10020</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="H23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -2268,22 +2303,22 @@
         <v>10021</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -2294,22 +2329,22 @@
         <v>10022</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -2320,22 +2355,22 @@
         <v>10023</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -2346,22 +2381,22 @@
         <v>10024</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -2372,25 +2407,28 @@
         <v>10025</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:L28">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2402,7 +2440,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2425,62 +2463,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2489,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2510,16 +2548,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2531,16 +2569,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2552,28 +2590,41 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" ht="16.5" spans="6:6">
       <c r="F9" s="21"/>
@@ -2610,20 +2661,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2634,28 +2685,28 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="18" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2664,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2681,10 +2732,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2692,13 +2743,13 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2706,13 +2757,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2722,13 +2773,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2736,13 +2787,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2803,27 +2854,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -2832,7 +2883,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2841,7 +2892,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2849,7 +2900,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2857,7 +2908,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2865,7 +2916,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2873,7 +2924,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2881,7 +2932,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2889,7 +2940,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2897,7 +2948,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2905,7 +2956,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2913,7 +2964,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2921,7 +2972,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2929,7 +2980,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2937,7 +2988,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2945,7 +2996,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -2953,7 +3004,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -2961,7 +3012,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -2969,7 +3020,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -2977,7 +3028,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -2985,7 +3036,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -2993,7 +3044,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -3001,7 +3052,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -3009,7 +3060,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -3017,7 +3068,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -3025,7 +3076,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -3033,7 +3084,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -3041,7 +3092,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -3049,7 +3100,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -3057,7 +3108,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -3065,7 +3116,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -3073,7 +3124,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -3081,7 +3132,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -3089,7 +3140,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -3097,7 +3148,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -3105,7 +3156,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3142,34 +3193,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -3177,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -3188,10 +3239,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -3199,10 +3250,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -3210,10 +3261,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -3221,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31410" windowHeight="17055"/>
+    <workbookView windowWidth="17745" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="192">
   <si>
     <t>##var</t>
   </si>
@@ -53,6 +53,9 @@
     <t>ui_name</t>
   </si>
   <si>
+    <t>scene_res_path</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>对应界面</t>
   </si>
   <si>
+    <t>场景资源路径</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
     <t>FryingFoodWindow</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood</t>
+  </si>
+  <si>
     <t>烤羊肉</t>
   </si>
   <si>
@@ -150,6 +159,9 @@
   </si>
   <si>
     <t>BarbecueWindow</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/BarbecueFood</t>
   </si>
   <si>
     <t>煮牛肉</t>
@@ -1641,11 +1653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1653,16 +1665,16 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="18.975" style="26" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="17.2583333333333" style="26" customWidth="1"/>
     <col min="7" max="7" width="14.2166666666667" style="26" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="26" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="17.7333333333333" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="39.3666666666667" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,252 +1705,273 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:10">
+      <c r="K2" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" hidden="1" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="7">
         <v>10001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="7">
         <v>10002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" hidden="1" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="7">
         <v>10003</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" hidden="1" spans="1:9">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>10004</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="21">
         <v>1001</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" hidden="1" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>10005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="21">
         <v>1005</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:10">
+    </row>
+    <row r="9" ht="16.5" spans="2:11">
       <c r="B9" s="7">
         <v>10006</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="2:12">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" hidden="1" spans="2:12">
       <c r="B10" s="7">
         <v>10007</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -1949,27 +1982,29 @@
         <v>10008</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
       <c r="L11" s="26"/>
     </row>
     <row r="12" ht="16.5" spans="2:12">
@@ -1977,27 +2012,29 @@
         <v>10009</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
       <c r="L12" s="26"/>
     </row>
     <row r="13" ht="16.5" spans="2:12">
@@ -2005,27 +2042,29 @@
         <v>10010</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" ht="16.5" spans="2:12">
@@ -2033,27 +2072,29 @@
         <v>10011</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" ht="16.5" spans="2:12">
@@ -2061,27 +2102,29 @@
         <v>10012</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
       <c r="L15" s="26"/>
     </row>
     <row r="16" ht="16.5" spans="2:12">
@@ -2089,344 +2132,355 @@
         <v>10013</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" ht="16.5" spans="2:12">
+    <row r="17" ht="16.5" hidden="1" spans="2:12">
       <c r="B17" s="7">
         <v>10014</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" ht="16.5" spans="2:12">
+    <row r="18" ht="16.5" hidden="1" spans="2:12">
       <c r="B18" s="7">
         <v>10015</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" ht="16.5" spans="2:12">
+    <row r="19" ht="16.5" hidden="1" spans="2:12">
       <c r="B19" s="7">
         <v>10016</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" ht="16.5" spans="2:12">
+    <row r="20" ht="16.5" hidden="1" spans="2:12">
       <c r="B20" s="7">
         <v>10017</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" ht="16.5" spans="2:12">
+    <row r="21" ht="16.5" hidden="1" spans="2:12">
       <c r="B21" s="7">
         <v>10018</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" ht="16.5" spans="2:12">
+    <row r="22" ht="16.5" hidden="1" spans="2:12">
       <c r="B22" s="7">
         <v>10019</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" ht="16.5" spans="2:12">
+    <row r="23" ht="16.5" hidden="1" spans="2:12">
       <c r="B23" s="7">
         <v>10020</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>85</v>
-      </c>
       <c r="H23" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" ht="16.5" spans="2:12">
+    <row r="24" ht="16.5" hidden="1" spans="2:12">
       <c r="B24" s="7">
         <v>10021</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" ht="16.5" spans="2:12">
+    <row r="25" ht="16.5" hidden="1" spans="2:12">
       <c r="B25" s="7">
         <v>10022</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" ht="16.5" spans="2:12">
+    <row r="26" ht="16.5" hidden="1" spans="2:12">
       <c r="B26" s="7">
         <v>10023</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" ht="16.5" spans="2:12">
+    <row r="27" ht="16.5" hidden="1" spans="2:12">
       <c r="B27" s="7">
         <v>10024</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" ht="16.5" spans="2:9">
+    <row r="28" ht="16.5" hidden="1" spans="2:9">
       <c r="B28" s="7">
         <v>10025</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:L28">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="炒锅"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2463,62 +2517,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2527,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2548,16 +2602,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2569,16 +2623,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2590,16 +2644,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
@@ -2611,16 +2665,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G8">
         <v>114</v>
@@ -2661,20 +2715,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2685,28 +2739,28 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2715,13 +2769,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2732,10 +2786,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2743,13 +2797,13 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2757,13 +2811,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2773,13 +2827,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2787,13 +2841,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2854,27 +2908,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -2883,7 +2937,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2892,7 +2946,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2900,7 +2954,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2908,7 +2962,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2916,7 +2970,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2924,7 +2978,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2932,7 +2986,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2940,7 +2994,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -2948,7 +3002,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -2956,7 +3010,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -2964,7 +3018,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -2972,7 +3026,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -2980,7 +3034,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -2988,7 +3042,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -2996,7 +3050,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -3004,7 +3058,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -3012,7 +3066,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -3020,7 +3074,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -3028,7 +3082,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -3036,7 +3090,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -3044,7 +3098,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -3052,7 +3106,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -3060,7 +3114,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -3068,7 +3122,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -3076,7 +3130,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -3084,7 +3138,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -3092,7 +3146,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -3100,7 +3154,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -3108,7 +3162,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -3116,7 +3170,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -3124,7 +3178,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -3132,7 +3186,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -3140,7 +3194,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -3148,7 +3202,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -3156,7 +3210,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3193,34 +3247,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -3228,10 +3282,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -3239,10 +3293,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -3250,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -3261,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
         <v>186</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -3272,10 +3326,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17745" windowHeight="17655"/>
+    <workbookView windowWidth="18405" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="制作场景" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="198">
   <si>
     <t>##var</t>
   </si>
@@ -110,87 +110,108 @@
     <t>场景资源路径</t>
   </si>
   <si>
-    <t>蒸蛋</t>
+    <t>蛋炒饭</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>1001,1010</t>
+  </si>
+  <si>
+    <t>家常,清淡</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>FryingFoodWindow</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood</t>
+  </si>
+  <si>
+    <t>素炒什锦</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>水产,昂贵</t>
+  </si>
+  <si>
+    <t>意式茄汁焗饭</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>肉,重油,饱腹</t>
+  </si>
+  <si>
+    <t>烤五花肉</t>
+  </si>
+  <si>
+    <t>烤架</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>BarbecueWindow</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/BarbecueFood</t>
+  </si>
+  <si>
+    <t>烤羊肉串</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>蒸蔬包子</t>
   </si>
   <si>
     <t>蒸笼</t>
   </si>
   <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>家常,清淡</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>炒虾</t>
-  </si>
-  <si>
-    <t>炒锅</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>水产,昂贵</t>
-  </si>
-  <si>
-    <t>FryingFoodWindow</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/FryFood</t>
-  </si>
-  <si>
-    <t>烤羊肉</t>
-  </si>
-  <si>
-    <t>烤架</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>肉,重油,饱腹</t>
-  </si>
-  <si>
-    <t>BarbecueWindow</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/BarbecueFood</t>
-  </si>
-  <si>
-    <t>煮牛肉</t>
+    <t>1002,2006,2007,2010</t>
+  </si>
+  <si>
+    <t>肉,家常</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>SteamWindow</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SteamedFood</t>
+  </si>
+  <si>
+    <t>蒸汤圆</t>
+  </si>
+  <si>
+    <t>素,家常</t>
+  </si>
+  <si>
+    <t>蒸饺子</t>
+  </si>
+  <si>
+    <t>1002,3005</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
   </si>
   <si>
     <t>煮锅</t>
   </si>
   <si>
-    <t>肉,家常</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>烤土豆</t>
-  </si>
-  <si>
-    <t>素,家常</t>
-  </si>
-  <si>
-    <t>红烧肉</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>酸菜鱼</t>
-  </si>
-  <si>
     <t>1015,1021</t>
   </si>
   <si>
@@ -204,9 +225,6 @@
   </si>
   <si>
     <t>小巧,辣</t>
-  </si>
-  <si>
-    <t>蛋炒饭</t>
   </si>
   <si>
     <t>1003,1022</t>
@@ -786,7 +804,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,7 +1175,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,16 +1199,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1199,83 +1223,83 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
@@ -1330,8 +1354,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1653,21 +1684,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L28"/>
+  <sheetPr/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="18.975" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.2583333333333" style="26" customWidth="1"/>
-    <col min="7" max="7" width="14.2166666666667" style="26" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="18.975" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.2583333333333" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14.2166666666667" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="27" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="17.7333333333333" customWidth="1"/>
     <col min="11" max="11" width="39.3666666666667" customWidth="1"/>
@@ -1779,507 +1810,522 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" hidden="1" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7">
+    <row r="4" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28">
         <v>10001</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="J4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="K4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="21" t="s">
+    </row>
+    <row r="5" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28">
+        <v>10003</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" ht="16.5" hidden="1" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="D7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="E7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J7" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" ht="16.5" hidden="1" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
-        <v>10004</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="K7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="8" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28">
+        <v>20002</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="21">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="F8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28">
+        <v>30001</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="D9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" hidden="1" spans="1:11">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
-        <v>10005</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="J9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28">
+        <v>30002</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" s="26" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B11" s="28">
+        <v>30003</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="21">
-        <v>1005</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="28" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="2:11">
-      <c r="B9" s="7">
-        <v>10006</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" hidden="1" spans="2:12">
-      <c r="B10" s="7">
-        <v>10007</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="J11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="K11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:12">
-      <c r="B11" s="7">
-        <v>10008</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="26"/>
     </row>
     <row r="12" ht="16.5" spans="2:12">
       <c r="B12" s="7">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="E12" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" ht="16.5" spans="2:12">
       <c r="B13" s="7">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="33" t="s">
         <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" ht="16.5" spans="2:12">
       <c r="B14" s="7">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="33" t="s">
         <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" ht="16.5" spans="2:12">
       <c r="B15" s="7">
-        <v>10012</v>
+        <v>10010</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="33" t="s">
         <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" ht="16.5" spans="2:12">
       <c r="B16" s="7">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" ht="16.5" hidden="1" spans="2:12">
+        <v>36</v>
+      </c>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:12">
       <c r="B17" s="7">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>77</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" ht="16.5" hidden="1" spans="2:12">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:12">
       <c r="B18" s="7">
-        <v>10015</v>
+        <v>10013</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" ht="16.5" hidden="1" spans="2:12">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:12">
       <c r="B19" s="7">
-        <v>10016</v>
+        <v>10014</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" ht="16.5" hidden="1" spans="2:12">
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:12">
       <c r="B20" s="7">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>86</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" ht="16.5" hidden="1" spans="2:12">
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:12">
       <c r="B21" s="7">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -2288,199 +2334,254 @@
       <c r="H21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" ht="16.5" hidden="1" spans="2:12">
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:12">
       <c r="B22" s="7">
-        <v>10019</v>
+        <v>10017</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="21" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" ht="16.5" hidden="1" spans="2:12">
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:12">
       <c r="B23" s="7">
-        <v>10020</v>
+        <v>10018</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>89</v>
+      <c r="F23" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" ht="16.5" hidden="1" spans="2:12">
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:12">
       <c r="B24" s="7">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:12">
+      <c r="B25" s="7">
+        <v>10020</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" ht="16.5" hidden="1" spans="2:12">
-      <c r="B25" s="7">
-        <v>10022</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>100</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" ht="16.5" hidden="1" spans="2:12">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:12">
       <c r="B26" s="7">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="31" t="s">
         <v>103</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" ht="16.5" hidden="1" spans="2:12">
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:12">
       <c r="B27" s="7">
-        <v>10024</v>
+        <v>10022</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="31" t="s">
         <v>106</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" ht="16.5" hidden="1" spans="2:9">
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:12">
       <c r="B28" s="7">
-        <v>10025</v>
+        <v>10023</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:12">
+      <c r="B29" s="7">
+        <v>10024</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:9">
+      <c r="B30" s="7">
+        <v>10025</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L28">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="炒锅"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A3:L30">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,7 +2595,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2517,16 +2618,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -2546,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2557,22 +2658,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2581,16 +2682,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2602,16 +2703,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2623,16 +2724,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2644,16 +2745,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
@@ -2665,16 +2766,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G8">
         <v>114</v>
@@ -2715,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
@@ -2728,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2739,13 +2840,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
@@ -2754,13 +2855,13 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2769,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2786,10 +2887,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2797,13 +2898,13 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2811,13 +2912,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2827,13 +2928,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2841,13 +2942,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2908,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -2937,7 +3038,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -2946,7 +3047,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -2954,7 +3055,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -2962,7 +3063,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -2970,7 +3071,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -2978,7 +3079,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -2986,7 +3087,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -2994,7 +3095,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -3002,7 +3103,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -3010,7 +3111,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -3018,7 +3119,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -3026,7 +3127,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -3034,7 +3135,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -3042,7 +3143,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -3050,7 +3151,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -3058,7 +3159,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -3066,7 +3167,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -3074,7 +3175,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -3082,7 +3183,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -3090,7 +3191,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -3098,7 +3199,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -3106,7 +3207,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -3114,7 +3215,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -3122,7 +3223,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -3130,7 +3231,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -3138,7 +3239,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -3146,7 +3247,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -3154,7 +3255,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -3162,7 +3263,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -3170,7 +3271,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -3178,7 +3279,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -3186,7 +3287,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -3194,7 +3295,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -3202,7 +3303,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -3210,7 +3311,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3326,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -3247,10 +3348,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -3274,7 +3375,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -3282,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -3293,10 +3394,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -3304,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -3315,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -3326,10 +3427,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18405" windowHeight="12255"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="制作场景" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="180">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,12 @@
     <t>2008</t>
   </si>
   <si>
+    <t>酸,甜,饱腹</t>
+  </si>
+  <si>
+    <t>蜂蜜松饼</t>
+  </si>
+  <si>
     <t>肉,重油,饱腹</t>
   </si>
   <si>
@@ -212,160 +218,100 @@
     <t>煮锅</t>
   </si>
   <si>
-    <t>1015,1021</t>
-  </si>
-  <si>
     <t>水产,热气,软烂,酸</t>
   </si>
   <si>
     <t>辣白菜</t>
   </si>
   <si>
-    <t>1020</t>
-  </si>
-  <si>
     <t>小巧,辣</t>
   </si>
   <si>
-    <t>1003,1022</t>
-  </si>
-  <si>
     <t>饱腹,小炒,家常</t>
   </si>
   <si>
     <t>红烧茄子</t>
   </si>
   <si>
-    <t>1024</t>
-  </si>
-  <si>
     <t>小炒,家常,实惠</t>
   </si>
   <si>
     <t>西红柿炒鸡蛋</t>
   </si>
   <si>
-    <t>1003,1017</t>
-  </si>
-  <si>
     <t>炒青菜</t>
   </si>
   <si>
-    <t>1019</t>
-  </si>
-  <si>
     <t>家常,实惠,清淡</t>
   </si>
   <si>
     <t>宫保鸡丁</t>
   </si>
   <si>
-    <t>1006,1014,1018</t>
-  </si>
-  <si>
     <t>家常,荤素搭配</t>
   </si>
   <si>
     <t>土豆炖牛肉</t>
   </si>
   <si>
-    <t>1001,1005</t>
-  </si>
-  <si>
     <t>暖胃,软烂,肉</t>
   </si>
   <si>
     <t>小鸡炖蘑菇</t>
   </si>
   <si>
-    <t>1006,1013</t>
-  </si>
-  <si>
     <t>汤羹,软烂,野味</t>
   </si>
   <si>
     <t>烤章鱼</t>
   </si>
   <si>
-    <t>1016</t>
-  </si>
-  <si>
     <t>水产,重油,烧烤</t>
   </si>
   <si>
     <t>烤蘑菇</t>
   </si>
   <si>
-    <t>1013</t>
-  </si>
-  <si>
     <t>烧烤,素</t>
   </si>
   <si>
     <t>猪肉蒸饺</t>
   </si>
   <si>
-    <t>1008,1026</t>
-  </si>
-  <si>
     <t>热气,肉,家常</t>
   </si>
   <si>
     <t>南瓜米糕</t>
   </si>
   <si>
-    <t>1008,1011,1025</t>
-  </si>
-  <si>
     <t>清淡,小巧</t>
   </si>
   <si>
     <t>烧麦</t>
   </si>
   <si>
-    <t>1008,1022,1026</t>
-  </si>
-  <si>
     <t>蒸茄子</t>
   </si>
   <si>
-    <t>1024,1027</t>
-  </si>
-  <si>
     <t>热气,素,家常</t>
   </si>
   <si>
     <t>蒸扇贝</t>
   </si>
   <si>
-    <t>1028</t>
-  </si>
-  <si>
     <t>热气,水产,家常</t>
   </si>
   <si>
     <t>蒸素包子</t>
   </si>
   <si>
-    <t>1003,1008,1019</t>
-  </si>
-  <si>
     <t>热气,素,家常,饱腹</t>
   </si>
   <si>
-    <t>蜂蜜松饼</t>
-  </si>
-  <si>
-    <t>1008,1009</t>
-  </si>
-  <si>
     <t>甜,昂贵</t>
   </si>
   <si>
     <t>桂花酒酿元宵</t>
-  </si>
-  <si>
-    <t>1030,1031,1032</t>
   </si>
   <si>
     <t>甜,昂贵,小巧</t>
@@ -1685,18 +1631,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="18.975" style="27" customWidth="1"/>
-    <col min="6" max="6" width="17.2583333333333" style="27" customWidth="1"/>
+    <col min="5" max="5" width="19.925" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.1166666666667" style="27" customWidth="1"/>
     <col min="7" max="7" width="14.2166666666667" style="27" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="27" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
@@ -1906,19 +1852,19 @@
     <row r="7" s="26" customFormat="1" ht="16.5" spans="1:11">
       <c r="A7" s="28"/>
       <c r="B7" s="28">
-        <v>20001</v>
+        <v>10005</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29" t="s">
@@ -1928,28 +1874,28 @@
         <v>34</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" s="26" customFormat="1" ht="16.5" spans="1:11">
       <c r="A8" s="28"/>
       <c r="B8" s="28">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29" t="s">
@@ -1959,175 +1905,176 @@
         <v>34</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="26" customFormat="1" ht="16.5" spans="1:11">
       <c r="A9" s="28"/>
       <c r="B9" s="28">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" s="29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" s="26" customFormat="1" ht="16.5" spans="1:11">
       <c r="A10" s="28"/>
       <c r="B10" s="28">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" s="26" customFormat="1" ht="16.5" spans="2:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="26" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A11" s="28"/>
       <c r="B11" s="28">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" s="26" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B12" s="28">
+        <v>30003</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:12">
-      <c r="B12" s="7">
-        <v>10007</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="J12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" ht="16.5" spans="2:12">
       <c r="B13" s="7">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
     <row r="14" ht="16.5" spans="2:12">
       <c r="B14" s="7">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>68</v>
+      <c r="E14" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>33</v>
@@ -2145,19 +2092,19 @@
     </row>
     <row r="15" ht="16.5" spans="2:12">
       <c r="B15" s="7">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>71</v>
+      <c r="E15" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>33</v>
@@ -2175,19 +2122,19 @@
     </row>
     <row r="16" ht="16.5" spans="2:12">
       <c r="B16" s="7">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>74</v>
+      <c r="E16" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>33</v>
@@ -2205,19 +2152,19 @@
     </row>
     <row r="17" ht="16.5" spans="2:12">
       <c r="B17" s="7">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>76</v>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>33</v>
@@ -2235,19 +2182,19 @@
     </row>
     <row r="18" ht="16.5" spans="2:12">
       <c r="B18" s="7">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>79</v>
+      <c r="E18" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>33</v>
@@ -2265,48 +2212,52 @@
     </row>
     <row r="19" ht="16.5" spans="2:12">
       <c r="B19" s="7">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="27"/>
     </row>
     <row r="20" ht="16.5" spans="2:12">
       <c r="B20" s="7">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>34</v>
@@ -2317,49 +2268,45 @@
     </row>
     <row r="21" ht="16.5" spans="2:12">
       <c r="B21" s="7">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
     <row r="22" ht="16.5" spans="2:12">
       <c r="B22" s="7">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>33</v>
@@ -2368,28 +2315,28 @@
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22" s="27"/>
     </row>
     <row r="23" ht="16.5" spans="2:12">
       <c r="B23" s="7">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>33</v>
@@ -2397,28 +2344,32 @@
       <c r="I23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="L23" s="27"/>
     </row>
     <row r="24" ht="16.5" spans="2:12">
       <c r="B24" s="7">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>34</v>
@@ -2429,22 +2380,22 @@
     </row>
     <row r="25" ht="16.5" spans="2:12">
       <c r="B25" s="7">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>34</v>
@@ -2455,19 +2406,19 @@
     </row>
     <row r="26" ht="16.5" spans="2:12">
       <c r="B26" s="7">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>33</v>
@@ -2481,19 +2432,19 @@
     </row>
     <row r="27" ht="16.5" spans="2:12">
       <c r="B27" s="7">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>33</v>
@@ -2507,19 +2458,19 @@
     </row>
     <row r="28" ht="16.5" spans="2:12">
       <c r="B28" s="7">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>33</v>
@@ -2533,22 +2484,22 @@
     </row>
     <row r="29" ht="16.5" spans="2:12">
       <c r="B29" s="7">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>112</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>34</v>
@@ -2557,31 +2508,57 @@
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" ht="16.5" spans="2:9">
+    <row r="30" ht="16.5" spans="2:12">
       <c r="B30" s="7">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>115</v>
+        <v>53</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I30" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:9">
+      <c r="B31" s="7">
+        <v>10025</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L30">
+  <autoFilter ref="A3:L31">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2618,16 +2595,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -2647,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2658,22 +2635,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2682,16 +2659,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2703,16 +2680,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2724,16 +2701,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2745,16 +2722,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
@@ -2766,16 +2743,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G8">
         <v>114</v>
@@ -2816,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
@@ -2829,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2840,13 +2817,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
@@ -2855,13 +2832,13 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="18" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2870,13 +2847,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2887,10 +2864,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2898,13 +2875,13 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2912,13 +2889,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2928,13 +2905,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2942,13 +2919,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -3009,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -3038,7 +3015,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -3047,7 +3024,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -3055,7 +3032,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -3063,7 +3040,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -3071,7 +3048,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -3079,7 +3056,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -3087,7 +3064,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -3095,7 +3072,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -3103,7 +3080,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -3111,7 +3088,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -3119,7 +3096,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -3127,7 +3104,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -3135,7 +3112,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -3143,7 +3120,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -3151,7 +3128,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -3159,7 +3136,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -3167,7 +3144,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -3175,7 +3152,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -3183,7 +3160,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -3191,7 +3168,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -3199,7 +3176,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -3207,7 +3184,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -3215,7 +3192,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -3223,7 +3200,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -3231,7 +3208,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -3239,7 +3216,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -3247,7 +3224,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -3255,7 +3232,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -3263,7 +3240,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -3271,7 +3248,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -3279,7 +3256,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -3287,7 +3264,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -3295,7 +3272,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -3303,7 +3280,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -3311,7 +3288,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3348,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -3375,7 +3352,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -3383,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -3394,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -3405,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -3416,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -3427,10 +3404,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="182">
   <si>
     <t>##var</t>
   </si>
@@ -197,7 +197,7 @@
     <t>SteamWindow</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/AllFood/SteamedFood</t>
+    <t>Assets/GameRes/Prefabs/AllFood/SteamedFood/30001.prefab</t>
   </si>
   <si>
     <t>蒸汤圆</t>
@@ -206,10 +206,16 @@
     <t>素,家常</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SteamedFood/30002.prefab</t>
+  </si>
+  <si>
     <t>蒸饺子</t>
   </si>
   <si>
     <t>1002,3005</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SteamedFood/30003.prefab</t>
   </si>
   <si>
     <t>酸菜鱼</t>
@@ -1633,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1648,7 +1654,7 @@
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="17.7333333333333" customWidth="1"/>
     <col min="11" max="11" width="39.3666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="15.4666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:11">
@@ -2001,7 +2007,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" s="26" customFormat="1" ht="16.5" spans="2:11">
@@ -2009,13 +2015,13 @@
         <v>30003</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>44</v>
@@ -2031,7 +2037,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:12">
@@ -2039,16 +2045,16 @@
         <v>10007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>56</v>
@@ -2065,7 +2071,7 @@
         <v>10008</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2080,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>33</v>
@@ -2104,7 +2110,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>33</v>
@@ -2125,7 +2131,7 @@
         <v>10010</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>30</v>
@@ -2134,7 +2140,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>33</v>
@@ -2155,7 +2161,7 @@
         <v>10011</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2170,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>33</v>
@@ -2185,7 +2191,7 @@
         <v>10012</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>30</v>
@@ -2194,7 +2200,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>33</v>
@@ -2215,7 +2221,7 @@
         <v>10013</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>30</v>
@@ -2224,7 +2230,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>33</v>
@@ -2245,16 +2251,16 @@
         <v>10014</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>56</v>
@@ -2271,16 +2277,16 @@
         <v>10015</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" s="21" t="s">
         <v>56</v>
@@ -2297,7 +2303,7 @@
         <v>10016</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>46</v>
@@ -2306,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>33</v>
@@ -2327,7 +2333,7 @@
         <v>10017</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>46</v>
@@ -2336,7 +2342,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>33</v>
@@ -2357,7 +2363,7 @@
         <v>10018</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>53</v>
@@ -2366,7 +2372,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>33</v>
@@ -2383,7 +2389,7 @@
         <v>10019</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>53</v>
@@ -2392,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>56</v>
@@ -2409,7 +2415,7 @@
         <v>10020</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>53</v>
@@ -2418,7 +2424,7 @@
         <v>31</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>33</v>
@@ -2435,7 +2441,7 @@
         <v>10021</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>53</v>
@@ -2444,7 +2450,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>33</v>
@@ -2461,7 +2467,7 @@
         <v>10022</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>53</v>
@@ -2470,7 +2476,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>33</v>
@@ -2487,7 +2493,7 @@
         <v>10023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>53</v>
@@ -2496,7 +2502,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>33</v>
@@ -2522,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>56</v>
@@ -2539,7 +2545,7 @@
         <v>10025</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>53</v>
@@ -2548,7 +2554,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>56</v>
@@ -2558,9 +2564,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L31">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2595,16 +2598,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -2624,7 +2627,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2635,22 +2638,22 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -2659,16 +2662,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>115</v>
@@ -2680,16 +2683,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -2701,16 +2704,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G6">
         <v>97</v>
@@ -2722,16 +2725,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="25">
         <v>113</v>
@@ -2743,16 +2746,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8">
         <v>114</v>
@@ -2793,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
@@ -2806,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -2817,13 +2820,13 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
@@ -2832,13 +2835,13 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
@@ -2847,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="21"/>
     </row>
@@ -2864,10 +2867,10 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -2875,13 +2878,13 @@
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="21"/>
     </row>
@@ -2889,13 +2892,13 @@
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8" s="21"/>
     </row>
@@ -2905,13 +2908,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="21"/>
     </row>
@@ -2919,13 +2922,13 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -2986,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -3015,7 +3018,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -3024,7 +3027,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
@@ -3032,7 +3035,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
@@ -3040,7 +3043,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
@@ -3048,7 +3051,7 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
@@ -3056,7 +3059,7 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
@@ -3064,7 +3067,7 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
@@ -3072,7 +3075,7 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
@@ -3080,7 +3083,7 @@
         <v>1009</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
@@ -3088,7 +3091,7 @@
         <v>1010</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
@@ -3096,7 +3099,7 @@
         <v>1011</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
@@ -3104,7 +3107,7 @@
         <v>1012</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
@@ -3112,7 +3115,7 @@
         <v>1013</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
@@ -3120,7 +3123,7 @@
         <v>1014</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
@@ -3128,7 +3131,7 @@
         <v>1015</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
@@ -3136,7 +3139,7 @@
         <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -3144,7 +3147,7 @@
         <v>1017</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
@@ -3152,7 +3155,7 @@
         <v>1018</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
@@ -3160,7 +3163,7 @@
         <v>1019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -3168,7 +3171,7 @@
         <v>1020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
@@ -3176,7 +3179,7 @@
         <v>1021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
@@ -3184,7 +3187,7 @@
         <v>1022</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
@@ -3192,7 +3195,7 @@
         <v>1023</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
@@ -3200,7 +3203,7 @@
         <v>1024</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
@@ -3208,7 +3211,7 @@
         <v>1025</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
@@ -3216,7 +3219,7 @@
         <v>1026</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
@@ -3224,7 +3227,7 @@
         <v>1027</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
@@ -3232,7 +3235,7 @@
         <v>1028</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
@@ -3240,7 +3243,7 @@
         <v>1029</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
@@ -3248,7 +3251,7 @@
         <v>1030</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
@@ -3256,7 +3259,7 @@
         <v>1031</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
@@ -3264,7 +3267,7 @@
         <v>1032</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
@@ -3272,7 +3275,7 @@
         <v>1033</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
@@ -3280,7 +3283,7 @@
         <v>1034</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
@@ -3288,7 +3291,7 @@
         <v>1035</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3325,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
@@ -3352,7 +3355,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:4">
@@ -3360,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:4">
@@ -3371,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:4">
@@ -3382,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:4">
@@ -3393,10 +3396,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:4">
@@ -3404,10 +3407,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="13485"/>
+    <workbookView windowWidth="18990" windowHeight="10830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -1639,7 +1639,7 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="I1" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2775,8 +2775,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/DataConfig/Datas/menu.xlsx
+++ b/DataConfig/Datas/menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="10830" activeTab="2"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="菜谱" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">菜谱!$A$3:$L$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -572,7 +585,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1639,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2775,7 +2788,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
